--- a/biology/Zoologie/Acropora_retusa/Acropora_retusa.xlsx
+++ b/biology/Zoologie/Acropora_retusa/Acropora_retusa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acropora retusa est une espèce de coraux appartenant à la famille des Acroporidae.
 </t>
@@ -511,10 +523,12 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les colonies de cette espèce forment des plaques horizontales plates avec des branches secondaires digitées, épaisses et courtes. Les corallites ont des cloisons arrondies, épaisses et de larges ouvertures. Le corallite axial est indistinct. Le corallites radiaires sont étranglés, prenant une forme de narine près des bouts de branche[2].
-Cette espèce ne doit pas être confondue avec les proches Acropora gemmifera et Acropora monticulosa[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les colonies de cette espèce forment des plaques horizontales plates avec des branches secondaires digitées, épaisses et courtes. Les corallites ont des cloisons arrondies, épaisses et de larges ouvertures. Le corallite axial est indistinct. Le corallites radiaires sont étranglés, prenant une forme de narine près des bouts de branche.
+Cette espèce ne doit pas être confondue avec les proches Acropora gemmifera et Acropora monticulosa.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une espèce commune dans le sud-ouest de l'océan indien, et plus rare ailleurs, mais on la trouve parfois jusque dans le Pacifique[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce commune dans le sud-ouest de l'océan indien, et plus rare ailleurs, mais on la trouve parfois jusque dans le Pacifique.
 </t>
         </is>
       </c>
